--- a/Code/Results/Cases/Case_9_55/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_55/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.689782440671308</v>
+        <v>2.490003664843698</v>
       </c>
       <c r="C2">
-        <v>0.5205118293284556</v>
+        <v>0.5650609713108565</v>
       </c>
       <c r="D2">
-        <v>0.03406628526624367</v>
+        <v>0.03586796743749332</v>
       </c>
       <c r="E2">
-        <v>0.05687580876127951</v>
+        <v>0.05508379259942853</v>
       </c>
       <c r="F2">
-        <v>1.117794080574726</v>
+        <v>0.9828518647796756</v>
       </c>
       <c r="G2">
-        <v>1.075706674789998</v>
+        <v>0.8992907336989475</v>
       </c>
       <c r="H2">
-        <v>0.00159685903976281</v>
+        <v>0.001261306562936104</v>
       </c>
       <c r="I2">
-        <v>0.001218424101032678</v>
+        <v>0.0009475984369284873</v>
       </c>
       <c r="J2">
-        <v>0.6824645119188517</v>
+        <v>0.6430746353745036</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2657271899789251</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1745775171036108</v>
       </c>
       <c r="N2">
-        <v>0.1647210901478857</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.4507316451509098</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9016394829060368</v>
+        <v>0.1778459659185145</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.4302654077474557</v>
+      </c>
+      <c r="R2">
+        <v>0.8624419206271519</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.343646680854249</v>
+        <v>2.177071166828796</v>
       </c>
       <c r="C3">
-        <v>0.4628644561102817</v>
+        <v>0.4969468995072361</v>
       </c>
       <c r="D3">
-        <v>0.03308988814657177</v>
+        <v>0.03399123876071997</v>
       </c>
       <c r="E3">
-        <v>0.05345505442770804</v>
+        <v>0.05214559885813508</v>
       </c>
       <c r="F3">
-        <v>1.022293480110065</v>
+        <v>0.905595389438389</v>
       </c>
       <c r="G3">
-        <v>0.9828827626901813</v>
+        <v>0.8286623097071697</v>
       </c>
       <c r="H3">
-        <v>0.003081509337276578</v>
+        <v>0.002449289463930526</v>
       </c>
       <c r="I3">
-        <v>0.002478223602319307</v>
+        <v>0.001761465321069355</v>
       </c>
       <c r="J3">
-        <v>0.6433968070377034</v>
+        <v>0.6098085424171842</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2648690665487479</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1615992632506362</v>
       </c>
       <c r="N3">
-        <v>0.1465656267422375</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.3941095877070993</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9347573312668072</v>
+        <v>0.1587908250467009</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3770612259313424</v>
+      </c>
+      <c r="R3">
+        <v>0.8920709807523011</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.130827419688728</v>
+        <v>1.984082669144129</v>
       </c>
       <c r="C4">
-        <v>0.4276970307410011</v>
+        <v>0.4554783903246573</v>
       </c>
       <c r="D4">
-        <v>0.03247481443393063</v>
+        <v>0.03283637530078565</v>
       </c>
       <c r="E4">
-        <v>0.05134501957008675</v>
+        <v>0.05032830903663632</v>
       </c>
       <c r="F4">
-        <v>0.9643761049989052</v>
+        <v>0.858562628565366</v>
       </c>
       <c r="G4">
-        <v>0.9265026046539475</v>
+        <v>0.7857915287174251</v>
       </c>
       <c r="H4">
-        <v>0.004274555057718787</v>
+        <v>0.003406898146242954</v>
       </c>
       <c r="I4">
-        <v>0.003624141950870463</v>
+        <v>0.002550037132467153</v>
       </c>
       <c r="J4">
-        <v>0.6198087124015643</v>
+        <v>0.5893613826063984</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2641531624828737</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1543936188987907</v>
       </c>
       <c r="N4">
-        <v>0.1354531430834172</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.3593267175547936</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.955584686144336</v>
+        <v>0.1471320032212162</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.3443151442641366</v>
+      </c>
+      <c r="R4">
+        <v>0.9108565241569755</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.042362111524426</v>
+        <v>1.903695764824619</v>
       </c>
       <c r="C5">
-        <v>0.4138925301352572</v>
+        <v>0.4391644839860476</v>
       </c>
       <c r="D5">
-        <v>0.03223989236350278</v>
+        <v>0.03239313957292822</v>
       </c>
       <c r="E5">
-        <v>0.05046895855101563</v>
+        <v>0.04957405801766646</v>
       </c>
       <c r="F5">
-        <v>0.939878602542521</v>
+        <v>0.8385335628749715</v>
       </c>
       <c r="G5">
-        <v>0.9024515500788368</v>
+        <v>0.767363782550035</v>
       </c>
       <c r="H5">
-        <v>0.004832082252472281</v>
+        <v>0.003855116355362176</v>
       </c>
       <c r="I5">
-        <v>0.00425818083601337</v>
+        <v>0.003029910483498988</v>
       </c>
       <c r="J5">
-        <v>0.6096746354896823</v>
+        <v>0.5804579189014589</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2634846175037033</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1514202648414731</v>
       </c>
       <c r="N5">
-        <v>0.130994303747265</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.3449764760283358</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9639659729208692</v>
+        <v>0.1424515267989577</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.3307914794098394</v>
+      </c>
+      <c r="R5">
+        <v>0.9185808198024104</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.025651143404502</v>
+        <v>1.888476000107147</v>
       </c>
       <c r="C6">
-        <v>0.4121913011597655</v>
+        <v>0.4370812093339964</v>
       </c>
       <c r="D6">
-        <v>0.03222493574290475</v>
+        <v>0.03235420967272873</v>
       </c>
       <c r="E6">
-        <v>0.05030817448072966</v>
+        <v>0.04943725521938658</v>
       </c>
       <c r="F6">
-        <v>0.934525415535191</v>
+        <v>0.8340501923922972</v>
       </c>
       <c r="G6">
-        <v>0.8969833162438619</v>
+        <v>0.7630067178613587</v>
       </c>
       <c r="H6">
-        <v>0.004933694404067379</v>
+        <v>0.003936921019759287</v>
       </c>
       <c r="I6">
-        <v>0.004471711586720772</v>
+        <v>0.003231891976624546</v>
       </c>
       <c r="J6">
-        <v>0.6072463128692931</v>
+        <v>0.5782912543793657</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2629697048162605</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1506614564154027</v>
       </c>
       <c r="N6">
-        <v>0.13033152626668</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.342387180362671</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9650919485375065</v>
+        <v>0.1417509608043375</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.3283520420258625</v>
+      </c>
+      <c r="R6">
+        <v>0.919782941291631</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.124108780401286</v>
+        <v>1.975700140125582</v>
       </c>
       <c r="C7">
-        <v>0.429122972772177</v>
+        <v>0.4561053624256886</v>
       </c>
       <c r="D7">
-        <v>0.03253858699507539</v>
+        <v>0.03299139647364413</v>
       </c>
       <c r="E7">
-        <v>0.05129234219532863</v>
+        <v>0.05027478857732137</v>
       </c>
       <c r="F7">
-        <v>0.9605030170283726</v>
+        <v>0.8530732252985587</v>
       </c>
       <c r="G7">
-        <v>0.9221219152661178</v>
+        <v>0.785798351084253</v>
       </c>
       <c r="H7">
-        <v>0.004294422652695307</v>
+        <v>0.003428563245244209</v>
       </c>
       <c r="I7">
-        <v>0.003895801508689622</v>
+        <v>0.002864980792750771</v>
       </c>
       <c r="J7">
-        <v>0.6176188950588681</v>
+        <v>0.5797425418803641</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.262597495041696</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1532416300924453</v>
       </c>
       <c r="N7">
-        <v>0.1356047220922036</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.3585687461986069</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9549690110259714</v>
+        <v>0.1472456747360056</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.3432964019849791</v>
+      </c>
+      <c r="R7">
+        <v>0.9106627859670997</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.563078080643663</v>
+        <v>2.368068831202265</v>
       </c>
       <c r="C8">
-        <v>0.5027392729167275</v>
+        <v>0.5408994026919061</v>
       </c>
       <c r="D8">
-        <v>0.03382464159524012</v>
+        <v>0.03558082365498905</v>
       </c>
       <c r="E8">
-        <v>0.05564423148130393</v>
+        <v>0.05399230619604345</v>
       </c>
       <c r="F8">
-        <v>1.079995140920673</v>
+        <v>0.9451335807396788</v>
       </c>
       <c r="G8">
-        <v>1.03816909015039</v>
+        <v>0.8829016387286543</v>
       </c>
       <c r="H8">
-        <v>0.002059228361187548</v>
+        <v>0.001642737235580616</v>
       </c>
       <c r="I8">
-        <v>0.00188030709489162</v>
+        <v>0.001535615523724942</v>
       </c>
       <c r="J8">
-        <v>0.6661834679646432</v>
+        <v>0.6040290816509355</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2626723993055258</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1676425908783159</v>
       </c>
       <c r="N8">
-        <v>0.1587357491691321</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.4304532510166936</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9120715238436556</v>
+        <v>0.1714407881276969</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.4101937775647002</v>
+      </c>
+      <c r="R8">
+        <v>0.8722517442071638</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.432653790707661</v>
+        <v>3.148606828882635</v>
       </c>
       <c r="C9">
-        <v>0.6465046667314596</v>
+        <v>0.7104949435581034</v>
       </c>
       <c r="D9">
-        <v>0.03609926335707314</v>
+        <v>0.04022486713682127</v>
       </c>
       <c r="E9">
-        <v>0.06424168931809771</v>
+        <v>0.06132746397729916</v>
       </c>
       <c r="F9">
-        <v>1.327298410078825</v>
+        <v>1.142596161287145</v>
       </c>
       <c r="G9">
-        <v>1.278784847508035</v>
+        <v>1.070478753798113</v>
       </c>
       <c r="H9">
-        <v>6.668070081561339E-05</v>
+        <v>5.140121388946817E-05</v>
       </c>
       <c r="I9">
-        <v>0.0007309719850061569</v>
+        <v>0.0009154853381900807</v>
       </c>
       <c r="J9">
-        <v>0.7686698567040651</v>
+        <v>0.6821950307876534</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2648283679393657</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2048177739833008</v>
       </c>
       <c r="N9">
-        <v>0.2040986861454144</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.5724896505439006</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8332195275615324</v>
+        <v>0.219038862522666</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.5429546695905998</v>
+      </c>
+      <c r="R9">
+        <v>0.8022860410873651</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.047855362870052</v>
+        <v>3.686081823131985</v>
       </c>
       <c r="C10">
-        <v>0.7601217721789055</v>
+        <v>0.8379599915181188</v>
       </c>
       <c r="D10">
-        <v>0.03812508088218536</v>
+        <v>0.04468136286258684</v>
       </c>
       <c r="E10">
-        <v>0.07036338203955705</v>
+        <v>0.06666212207344269</v>
       </c>
       <c r="F10">
-        <v>1.495136306087616</v>
+        <v>1.2634797772333</v>
       </c>
       <c r="G10">
-        <v>1.43838952099469</v>
+        <v>1.217637828216482</v>
       </c>
       <c r="H10">
-        <v>0.0004563143733018471</v>
+        <v>0.0003976936304246337</v>
       </c>
       <c r="I10">
-        <v>0.002243341158031598</v>
+        <v>0.002293627962043132</v>
       </c>
       <c r="J10">
-        <v>0.8357352166492262</v>
+        <v>0.688247591076447</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2595058792182101</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2294262438094563</v>
       </c>
       <c r="N10">
-        <v>0.2267180632160404</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.6661282302208349</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7755815186229555</v>
+        <v>0.2425585340490954</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.6281728142177982</v>
+      </c>
+      <c r="R10">
+        <v>0.7555327102230542</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.129476165626329</v>
+        <v>3.747678802762664</v>
       </c>
       <c r="C11">
-        <v>0.8608228325795437</v>
+        <v>0.9304981019524234</v>
       </c>
       <c r="D11">
-        <v>0.04339221260319093</v>
+        <v>0.05338610209663841</v>
       </c>
       <c r="E11">
-        <v>0.07630291005599155</v>
+        <v>0.07388085681228418</v>
       </c>
       <c r="F11">
-        <v>1.417313950427257</v>
+        <v>1.174977739656711</v>
       </c>
       <c r="G11">
-        <v>1.335313796823044</v>
+        <v>1.181340475974935</v>
       </c>
       <c r="H11">
-        <v>0.01905217990370645</v>
+        <v>0.01895912783388098</v>
       </c>
       <c r="I11">
-        <v>0.003370037628674716</v>
+        <v>0.00337716222788309</v>
       </c>
       <c r="J11">
-        <v>0.7782866543216755</v>
+        <v>0.5594862243489729</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2244679065915243</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2034066599118134</v>
       </c>
       <c r="N11">
-        <v>0.1514412066534518</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.6163453876119291</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7413510670888677</v>
+        <v>0.1629020255399354</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5772540794944661</v>
+      </c>
+      <c r="R11">
+        <v>0.7565413384850963</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.074896736306641</v>
+        <v>3.700771877019179</v>
       </c>
       <c r="C12">
-        <v>0.9220444428059409</v>
+        <v>0.9837796191145856</v>
       </c>
       <c r="D12">
-        <v>0.04833216893973002</v>
+        <v>0.06037261840160824</v>
       </c>
       <c r="E12">
-        <v>0.0874600254249831</v>
+        <v>0.08586042428423646</v>
       </c>
       <c r="F12">
-        <v>1.322751762103465</v>
+        <v>1.088563789900675</v>
       </c>
       <c r="G12">
-        <v>1.223589215289479</v>
+        <v>1.110960674560374</v>
       </c>
       <c r="H12">
-        <v>0.05765512244433069</v>
+        <v>0.05756921260474712</v>
       </c>
       <c r="I12">
-        <v>0.003463316837319041</v>
+        <v>0.003440381536970349</v>
       </c>
       <c r="J12">
-        <v>0.7198954426374371</v>
+        <v>0.4841648297047669</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2006158124582313</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1800210576254386</v>
       </c>
       <c r="N12">
-        <v>0.09834034758939936</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.5574421890270784</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.7387695827426057</v>
+        <v>0.106357513416711</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.5203589263244197</v>
+      </c>
+      <c r="R12">
+        <v>0.7793796589182591</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.90382196017049</v>
+        <v>3.56548749887429</v>
       </c>
       <c r="C13">
-        <v>0.9582388373647461</v>
+        <v>1.014956450003041</v>
       </c>
       <c r="D13">
-        <v>0.05333750452958697</v>
+        <v>0.06593314108538095</v>
       </c>
       <c r="E13">
-        <v>0.1029105752694761</v>
+        <v>0.1022502252515842</v>
       </c>
       <c r="F13">
-        <v>1.204275597442617</v>
+        <v>0.9974768202585409</v>
       </c>
       <c r="G13">
-        <v>1.09249532527727</v>
+        <v>0.9963993430698963</v>
       </c>
       <c r="H13">
-        <v>0.113258021698357</v>
+        <v>0.1132103304742031</v>
       </c>
       <c r="I13">
-        <v>0.003059927943995788</v>
+        <v>0.003117952748878494</v>
       </c>
       <c r="J13">
-        <v>0.6541907078620568</v>
+        <v>0.4490459376780649</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.182189705603097</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1568754913799708</v>
       </c>
       <c r="N13">
-        <v>0.05972123406420238</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.4876950641226969</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.7581313984621332</v>
+        <v>0.06484250426937166</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4556444063594114</v>
+      </c>
+      <c r="R13">
+        <v>0.8150398498279472</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.730631955816875</v>
+        <v>3.429340071023489</v>
       </c>
       <c r="C14">
-        <v>0.9728936830523764</v>
+        <v>1.027475689310478</v>
       </c>
       <c r="D14">
-        <v>0.05699779488428192</v>
+        <v>0.06917951646003928</v>
       </c>
       <c r="E14">
-        <v>0.1164825337395641</v>
+        <v>0.1166398043559234</v>
       </c>
       <c r="F14">
-        <v>1.110561744425709</v>
+        <v>0.9305285066382112</v>
       </c>
       <c r="G14">
-        <v>0.9921951304391428</v>
+        <v>0.898197928908786</v>
       </c>
       <c r="H14">
-        <v>0.1624993089750859</v>
+        <v>0.1624800887423561</v>
       </c>
       <c r="I14">
-        <v>0.002678520754851199</v>
+        <v>0.002841131249479822</v>
       </c>
       <c r="J14">
-        <v>0.6049409382452211</v>
+        <v>0.4390294129890719</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1712375116362459</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1408141376140684</v>
       </c>
       <c r="N14">
-        <v>0.04153101874177878</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.4346277494793327</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7829757475101928</v>
+        <v>0.04490901316485818</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4072057583964792</v>
+      </c>
+      <c r="R14">
+        <v>0.8457119696363335</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.662108600539739</v>
+        <v>3.375250873694711</v>
       </c>
       <c r="C15">
-        <v>0.9714509699821292</v>
+        <v>1.026169198322634</v>
       </c>
       <c r="D15">
-        <v>0.05782324812349771</v>
+        <v>0.06958619609633843</v>
       </c>
       <c r="E15">
-        <v>0.1197216930455447</v>
+        <v>0.1201960857640003</v>
       </c>
       <c r="F15">
-        <v>1.081497105163706</v>
+        <v>0.9114776198995145</v>
       </c>
       <c r="G15">
-        <v>0.9621942710428328</v>
+        <v>0.8652054350206697</v>
       </c>
       <c r="H15">
-        <v>0.1749700389109137</v>
+        <v>0.1749599829893498</v>
       </c>
       <c r="I15">
-        <v>0.002610294956951975</v>
+        <v>0.002835556546562756</v>
       </c>
       <c r="J15">
-        <v>0.5906800176630327</v>
+        <v>0.4421749168477334</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.169038221154338</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1365227438171885</v>
       </c>
       <c r="N15">
-        <v>0.03821091260434173</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.4190949832154871</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7921585323814639</v>
+        <v>0.04123583603678682</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3933179160928262</v>
+      </c>
+      <c r="R15">
+        <v>0.8543521470188438</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.432807010764691</v>
+        <v>3.191507331564992</v>
       </c>
       <c r="C16">
-        <v>0.914304044508242</v>
+        <v>0.9736661119251551</v>
       </c>
       <c r="D16">
-        <v>0.05578721333834125</v>
+        <v>0.06495610330350843</v>
       </c>
       <c r="E16">
-        <v>0.1133245982529587</v>
+        <v>0.114759156714598</v>
       </c>
       <c r="F16">
-        <v>1.032811081695741</v>
+        <v>0.8922955453537327</v>
       </c>
       <c r="G16">
-        <v>0.9198430910567765</v>
+        <v>0.7943561143284796</v>
       </c>
       <c r="H16">
-        <v>0.162111130206938</v>
+        <v>0.1621119686649592</v>
       </c>
       <c r="I16">
-        <v>0.002038066806714589</v>
+        <v>0.002399036475673633</v>
       </c>
       <c r="J16">
-        <v>0.5747600761914669</v>
+        <v>0.4943278403682427</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1749604526844095</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1342197033180561</v>
       </c>
       <c r="N16">
-        <v>0.03768142246092765</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3948411818438089</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.8094165584126856</v>
+        <v>0.04116973658409506</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3736318047012261</v>
+      </c>
+      <c r="R16">
+        <v>0.855612703879217</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.348413368380648</v>
+        <v>3.11916400474621</v>
       </c>
       <c r="C17">
-        <v>0.8629389732112998</v>
+        <v>0.9251246398359854</v>
       </c>
       <c r="D17">
-        <v>0.05223527116673665</v>
+        <v>0.0600401246150426</v>
       </c>
       <c r="E17">
-        <v>0.1006849373021943</v>
+        <v>0.1021385631015903</v>
       </c>
       <c r="F17">
-        <v>1.044815876733438</v>
+        <v>0.9108109724042635</v>
       </c>
       <c r="G17">
-        <v>0.9399372178004057</v>
+        <v>0.7957787577909556</v>
       </c>
       <c r="H17">
-        <v>0.1243204539097036</v>
+        <v>0.1243064220775949</v>
       </c>
       <c r="I17">
-        <v>0.001863712026112907</v>
+        <v>0.002260626895366435</v>
       </c>
       <c r="J17">
-        <v>0.5884324432389718</v>
+        <v>0.5343276910567738</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1854556049802945</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1403018710361827</v>
       </c>
       <c r="N17">
-        <v>0.04535494732973078</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.4038265255136366</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.8090136681146731</v>
+        <v>0.05007709871092558</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3834766949437522</v>
+      </c>
+      <c r="R17">
+        <v>0.8428197073463579</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.382820312207798</v>
+        <v>3.143254004151402</v>
       </c>
       <c r="C18">
-        <v>0.8100741247301073</v>
+        <v>0.8757646293044274</v>
       </c>
       <c r="D18">
-        <v>0.04731673586006124</v>
+        <v>0.05423225931973974</v>
       </c>
       <c r="E18">
-        <v>0.08463363629302556</v>
+        <v>0.08536077068762538</v>
       </c>
       <c r="F18">
-        <v>1.113851657496284</v>
+        <v>0.971033774210369</v>
       </c>
       <c r="G18">
-        <v>1.020649731735602</v>
+        <v>0.8546940970632306</v>
       </c>
       <c r="H18">
-        <v>0.07149329262466608</v>
+        <v>0.07147467690764131</v>
       </c>
       <c r="I18">
-        <v>0.00159728368757861</v>
+        <v>0.001950122181019864</v>
       </c>
       <c r="J18">
-        <v>0.6313265380863697</v>
+        <v>0.5819673281974929</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2031307816711667</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1559710482324519</v>
       </c>
       <c r="N18">
-        <v>0.06862026714902925</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.4441398698537</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.799105693736788</v>
+        <v>0.07557234221539488</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.4221039902889245</v>
+      </c>
+      <c r="R18">
+        <v>0.8191450106190175</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.500155592687975</v>
+        <v>3.235707183627767</v>
       </c>
       <c r="C19">
-        <v>0.7649911661994224</v>
+        <v>0.8351083406461441</v>
       </c>
       <c r="D19">
-        <v>0.04260616931439998</v>
+        <v>0.04883361707910439</v>
       </c>
       <c r="E19">
-        <v>0.07214663774619368</v>
+        <v>0.07153575833508086</v>
       </c>
       <c r="F19">
-        <v>1.220098026307909</v>
+        <v>1.058386419473365</v>
       </c>
       <c r="G19">
-        <v>1.141262807399741</v>
+        <v>0.9493829743164071</v>
       </c>
       <c r="H19">
-        <v>0.02622766403072063</v>
+        <v>0.02621982011299906</v>
       </c>
       <c r="I19">
-        <v>0.001774829711381543</v>
+        <v>0.002146666448388679</v>
       </c>
       <c r="J19">
-        <v>0.6928894299448842</v>
+        <v>0.6355448460344917</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2252140388621342</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1781405131369311</v>
       </c>
       <c r="N19">
-        <v>0.1146040012001279</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.5082313895991675</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7923403581228996</v>
+        <v>0.1247074491889464</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4827022722176011</v>
+      </c>
+      <c r="R19">
+        <v>0.7965210744243691</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.867450684429741</v>
+        <v>3.536375358646694</v>
       </c>
       <c r="C20">
-        <v>0.7355514130709366</v>
+        <v>0.8132950410804085</v>
       </c>
       <c r="D20">
-        <v>0.03785572666826553</v>
+        <v>0.04360989046069363</v>
       </c>
       <c r="E20">
-        <v>0.06860951817580874</v>
+        <v>0.06521934851196831</v>
       </c>
       <c r="F20">
-        <v>1.438765530150434</v>
+        <v>1.228457758138447</v>
       </c>
       <c r="G20">
-        <v>1.382508736338337</v>
+        <v>1.152723465263904</v>
       </c>
       <c r="H20">
-        <v>0.0002123495260826225</v>
+        <v>0.000194385187596513</v>
       </c>
       <c r="I20">
-        <v>0.002411414051274541</v>
+        <v>0.002714763462004832</v>
       </c>
       <c r="J20">
-        <v>0.8110839831012981</v>
+        <v>0.7070918660768228</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2594411123309186</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2211731503784193</v>
       </c>
       <c r="N20">
-        <v>0.2209508837419918</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.6392597360845897</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.788840785067952</v>
+        <v>0.2366456592691861</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.6048547039843726</v>
+      </c>
+      <c r="R20">
+        <v>0.7676688734628598</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.377262293912906</v>
+        <v>3.934451120212543</v>
       </c>
       <c r="C21">
-        <v>0.8148882614469244</v>
+        <v>0.8869516208288246</v>
       </c>
       <c r="D21">
-        <v>0.03873529581666801</v>
+        <v>0.04768361735405335</v>
       </c>
       <c r="E21">
-        <v>0.07381999075977386</v>
+        <v>0.06920081542025502</v>
       </c>
       <c r="F21">
-        <v>1.598928778609746</v>
+        <v>1.307367894520723</v>
       </c>
       <c r="G21">
-        <v>1.540396131067723</v>
+        <v>1.371478427216658</v>
       </c>
       <c r="H21">
-        <v>0.0009179470622042718</v>
+        <v>0.0006926786160905696</v>
       </c>
       <c r="I21">
-        <v>0.004287535372022866</v>
+        <v>0.00415501870042867</v>
       </c>
       <c r="J21">
-        <v>0.8803830821245811</v>
+        <v>0.5943642258830124</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.254338096451022</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2397230345411216</v>
       </c>
       <c r="N21">
-        <v>0.2556947194217116</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.7282121983320664</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7494978903484344</v>
+        <v>0.2723146902959854</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.6800023240512374</v>
+      </c>
+      <c r="R21">
+        <v>0.7338571174588573</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.70771828577432</v>
+        <v>4.188020324677211</v>
       </c>
       <c r="C22">
-        <v>0.8677532389019404</v>
+        <v>0.9342985049621575</v>
       </c>
       <c r="D22">
-        <v>0.03939767133705629</v>
+        <v>0.05069664198651225</v>
       </c>
       <c r="E22">
-        <v>0.07718975183817212</v>
+        <v>0.07190146537048137</v>
       </c>
       <c r="F22">
-        <v>1.700870063963634</v>
+        <v>1.353217407515345</v>
       </c>
       <c r="G22">
-        <v>1.640151118115256</v>
+        <v>1.522480139513448</v>
       </c>
       <c r="H22">
-        <v>0.001844552775350117</v>
+        <v>0.001372125754103504</v>
       </c>
       <c r="I22">
-        <v>0.005746349906268655</v>
+        <v>0.005084340237062612</v>
       </c>
       <c r="J22">
-        <v>0.9240042479501085</v>
+        <v>0.5187752463848341</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2498496934081373</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2509566678519093</v>
       </c>
       <c r="N22">
-        <v>0.2725238668018761</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.7818269474901385</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7238868387676636</v>
+        <v>0.2894130865644797</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.7241201468471132</v>
+      </c>
+      <c r="R22">
+        <v>0.7135515641161057</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.538114411799654</v>
+        <v>4.065071012677549</v>
       </c>
       <c r="C23">
-        <v>0.8374824180591247</v>
+        <v>0.9092561443415832</v>
       </c>
       <c r="D23">
-        <v>0.0389536775259991</v>
+        <v>0.04870142184505255</v>
       </c>
       <c r="E23">
-        <v>0.07543207992539225</v>
+        <v>0.0705048812136515</v>
       </c>
       <c r="F23">
-        <v>1.650576615975126</v>
+        <v>1.33775772396892</v>
       </c>
       <c r="G23">
-        <v>1.591649533500828</v>
+        <v>1.434598473024977</v>
       </c>
       <c r="H23">
-        <v>0.001318477500399373</v>
+        <v>0.0009926505705977196</v>
       </c>
       <c r="I23">
-        <v>0.004646527061483496</v>
+        <v>0.004228298847373857</v>
       </c>
       <c r="J23">
-        <v>0.9030955231143594</v>
+        <v>0.576398611319604</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2541150707351534</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2471515034912741</v>
       </c>
       <c r="N23">
-        <v>0.263268722432926</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.7538971934465906</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7380662081826577</v>
+        <v>0.2800979591171995</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.7020869546170232</v>
+      </c>
+      <c r="R23">
+        <v>0.7235610291865697</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.886582234049058</v>
+        <v>3.552513250450716</v>
       </c>
       <c r="C24">
-        <v>0.7272751233138877</v>
+        <v>0.8051370299577627</v>
       </c>
       <c r="D24">
-        <v>0.0373894674077313</v>
+        <v>0.04292984924840226</v>
       </c>
       <c r="E24">
-        <v>0.06881268222127845</v>
+        <v>0.06520936028113344</v>
       </c>
       <c r="F24">
-        <v>1.456420807174666</v>
+        <v>1.243557595459421</v>
       </c>
       <c r="G24">
-        <v>1.403115556092558</v>
+        <v>1.168968998540123</v>
       </c>
       <c r="H24">
-        <v>0.0001122052108399885</v>
+        <v>9.190163633232551E-05</v>
       </c>
       <c r="I24">
-        <v>0.001959189482513501</v>
+        <v>0.002157933043106297</v>
       </c>
       <c r="J24">
-        <v>0.8215721143900225</v>
+        <v>0.7171519244076592</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2637768505247493</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2254663849534211</v>
       </c>
       <c r="N24">
-        <v>0.2288787218295596</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.6473335066932222</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7921514353289441</v>
+        <v>0.2449866261552245</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.6125005795090317</v>
+      </c>
+      <c r="R24">
+        <v>0.7673847298453165</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.187123694131856</v>
+        <v>2.931858967401524</v>
       </c>
       <c r="C25">
-        <v>0.6102808350950113</v>
+        <v>0.6686344436290312</v>
       </c>
       <c r="D25">
-        <v>0.03562889757347065</v>
+        <v>0.03906276309319878</v>
       </c>
       <c r="E25">
-        <v>0.0618351181214305</v>
+        <v>0.059308877009006</v>
       </c>
       <c r="F25">
-        <v>1.253089233739473</v>
+        <v>1.085880530838239</v>
       </c>
       <c r="G25">
-        <v>1.2055411151415</v>
+        <v>1.007117441897194</v>
       </c>
       <c r="H25">
-        <v>0.0003289322231219138</v>
+        <v>0.0002572735782402358</v>
       </c>
       <c r="I25">
-        <v>0.001084013452948618</v>
+        <v>0.001296137667070596</v>
       </c>
       <c r="J25">
-        <v>0.7367759753664416</v>
+        <v>0.6684661897477184</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2633151010370369</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1930293620428465</v>
       </c>
       <c r="N25">
-        <v>0.192161832643265</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.5329833616586015</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8530265779681185</v>
+        <v>0.2065398327481063</v>
       </c>
       <c r="Q25">
+        <v>0.5065514821857207</v>
+      </c>
+      <c r="R25">
+        <v>0.8206673068704227</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
